--- a/ate_rpe_sr.xlsx
+++ b/ate_rpe_sr.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t xml:space="preserve">Env Name</t>
   </si>
@@ -52,54 +52,66 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul-city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~（5个一个没跟上）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese-alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3333"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">评价方法</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：单目时每个场景每个数据集跑5次，选出跟踪时间最长的一个估计轨迹与groundtruth做对比得到ATE/RPE/SR。但是跑下来发现用跟踪效果最好的一个的SR很多都为1,所以SR的计算最好是5个求平均
-</t>
+      <t xml:space="preserve">：单目时每个场景每个数据集跑5次，选出跟踪时间最长的一个估计轨迹与groundtruth做对比得到ATE/RPE/SR。但是跑下来发现用跟踪效果最好的一个的SR很多都为1,所以SR的计算最好是5个求平均.
+前面的方法可能不太好。准备将5个估计轨迹都计算一边ATE/RPE/SR，然后用平均值来得到每个指标的值。因为跟踪的时间长短才是区别描述子鲁棒性的指标，如果选最好的话就比不出来</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soul-city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~（5个一个没跟上）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese-alley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -151,6 +163,18 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,7 +240,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,6 +266,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -317,16 +349,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -349,67 +380,83 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="R2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -418,793 +465,932 @@
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>1.658</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>20.595</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>0.973</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="9" t="n">
         <v>0.099</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="8" t="n">
         <v>20.7376</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="9" t="n">
         <v>0.6577</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="8" t="n">
         <v>9.59</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="8" t="n">
         <v>27.362</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="8" t="n">
         <v>0.95</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>0.7703</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>18.0476</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>0.753</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="9" t="n">
         <v>0.062</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="9" t="n">
         <v>14.08</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="9" t="n">
         <v>0.43257</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.088</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>7.92</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>0.1446</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="8" t="n">
         <v>0.6366</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="8" t="n">
         <v>8.97</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="11" t="n">
         <v>0.073</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="8" t="n">
         <v>1.639</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>33.73</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>0.999</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="9" t="n">
         <v>0.2214</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="9" t="n">
         <v>30.4446</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="9" t="n">
         <v>0.9999</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8" t="n">
         <v>0.089</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="P11" s="8" t="n">
         <v>29.342192783847</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="Q11" s="8" t="n">
         <v>0.998</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="R11" s="8" t="n">
         <v>0.513484191861631</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="S11" s="8" t="n">
         <v>28.4321913024167</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="T11" s="8" t="n">
         <v>0.996</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>0.094</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <v>8.802</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="8" t="n">
         <v>0.36196</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="9" t="n">
         <v>0.04127</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="8" t="n">
         <v>10.7797</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="9" t="n">
         <v>0.3926</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="9" t="n">
         <v>3.022</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="n">
         <v>29.896</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="8" t="n">
         <v>0.99999</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="9" t="n">
         <v>0.2545</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="9" t="n">
         <v>25.8213</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="9" t="n">
         <v>0.9999</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <v>0.8455</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>14.9621</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="8" t="n">
         <v>0.9949</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="9" t="n">
         <v>0.06</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="9" t="n">
         <v>14.122</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="9" t="n">
         <v>0.9974</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>0.0365</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>5.661</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <v>0.133</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="8" t="n">
         <v>0.30347</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="8" t="n">
         <v>13.989</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="9" t="n">
         <v>0.9928</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>1.672</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <v>10.996</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="9" t="n">
         <v>0.07559</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="9" t="n">
         <v>10.591</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="8" t="n">
         <v>0.9935</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>1.9387</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>13.3305</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="8" t="n">
         <v>0.99999</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="9" t="n">
         <v>0.0356</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="9" t="n">
         <v>13.2359</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="8" t="n">
         <v>0.9987</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>0.155</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>23.9227</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="9" t="n">
         <v>0.07665</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="9" t="n">
         <v>23.7284</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="9" t="n">
         <v>9.5657</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>13.01</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <v>0.32167</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="9" t="n">
         <v>0.13248</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="8" t="n">
         <v>16.93</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="9" t="n">
         <v>0.33</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>0.11326</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>13.5524</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <v>0.2861</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="8" t="n">
         <v>0.7086</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="8" t="n">
         <v>15.3369</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="9" t="n">
         <v>0.3514</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>3.0223</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="8" t="n">
         <v>22.308</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="8" t="n">
         <v>0.9165</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="9" t="n">
         <v>0.2922</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="9" t="n">
         <v>21.096</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="8" t="n">
         <v>0.68</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="8" t="n">
         <v>15.31</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="8" t="n">
         <v>0.348</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="9" t="n">
         <v>0.0497</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="8" t="n">
         <v>15.965</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="9" t="n">
         <v>0.36154</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="8" t="n">
         <v>0.7493</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <v>19.3177</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="8" t="n">
         <v>0.9962</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="9" t="n">
         <v>0.3589</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="9" t="n">
         <v>19.0417</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="9" t="n">
         <v>0.998</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="8" t="n">
         <v>5.292</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="8" t="n">
         <v>35.175</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="8" t="n">
         <v>0.78628</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="9" t="n">
         <v>2.7097</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="9" t="n">
         <v>34.1444</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="9" t="n">
         <v>0.7863</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="8" t="n">
         <v>14.1828</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="8" t="n">
         <v>0.389</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="8" t="n">
         <v>0.4442</v>
       </c>
-      <c r="H25" s="7" t="n">
+      <c r="H25" s="8" t="n">
         <v>24.3798</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="9" t="n">
         <v>0.5459</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="9" t="n">
         <v>3.3768</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="8" t="n">
         <v>20.781</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="8" t="n">
         <v>0.99996</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="9" t="n">
         <v>0.1066</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26" s="9" t="n">
         <v>20.497</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="9" t="n">
         <v>0.9979</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:S4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:X4"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -1220,6 +1406,7 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A32:O37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
